--- a/pages/cta_express/estoque/data/DAMI29-05.xlsx
+++ b/pages/cta_express/estoque/data/DAMI29-05.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\Cta\dash\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\Cta\Server\Server\pages\cta_express\estoque\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="7470" windowHeight="10665"/>
+    <workbookView xWindow="4650" yWindow="0" windowWidth="7470" windowHeight="10665"/>
   </bookViews>
   <sheets>
     <sheet name="GLOBAL" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="433">
   <si>
     <t>NECESSIDADE ESTOQUE ONLINE - VENDA DE 01/05/25  A  27/05/25   Estoque:'27/05/25</t>
   </si>
@@ -1276,6 +1276,54 @@
   </si>
   <si>
     <t>TOTAL GERAL</t>
+  </si>
+  <si>
+    <t>Grupo</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>001 CERVEJAS RETORNAVEIS</t>
+  </si>
+  <si>
+    <t>001 300 (RET)</t>
+  </si>
+  <si>
+    <t>002 600 (RET)</t>
+  </si>
+  <si>
+    <t>004 1000 (RET)</t>
+  </si>
+  <si>
+    <t>007 600 (SEM RET)</t>
+  </si>
+  <si>
+    <t>002 CERVEJAS DESC</t>
+  </si>
+  <si>
+    <t>003 REFRIGERANTES</t>
+  </si>
+  <si>
+    <t>097 GAS</t>
+  </si>
+  <si>
+    <t>004 AGUA MINERAL</t>
+  </si>
+  <si>
+    <t>005 BEBIDAS QUENTES</t>
+  </si>
+  <si>
+    <t>006 DIVERSOS</t>
+  </si>
+  <si>
+    <t>014 GELO</t>
+  </si>
+  <si>
+    <t>007 SPOLLER</t>
+  </si>
+  <si>
+    <t>050 GARRAFAS / LITROS</t>
   </si>
 </sst>
 </file>
@@ -1447,13 +1495,13 @@
     <xf numFmtId="4" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1736,8 +1784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM400"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K400" sqref="K400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1747,21 +1795,22 @@
     <col min="3" max="3" width="40.7109375" customWidth="1"/>
     <col min="4" max="9" width="12.7109375" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
     </row>
     <row r="2" spans="1:39" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
@@ -1844,8 +1893,12 @@
       <c r="J4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="1"/>
+      <c r="K4" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>418</v>
+      </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -1903,7 +1956,12 @@
       <c r="J5" s="11">
         <v>1324.98</v>
       </c>
-      <c r="K5" s="6"/>
+      <c r="K5" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="L5" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
@@ -1926,7 +1984,12 @@
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
-      <c r="K6" s="8"/>
+      <c r="K6" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="L6" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
@@ -1955,7 +2018,12 @@
       <c r="J7" s="12">
         <v>4379.3900000000003</v>
       </c>
-      <c r="K7" s="8"/>
+      <c r="K7" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="L7" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
@@ -1982,7 +2050,12 @@
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
-      <c r="K8" s="8"/>
+      <c r="K8" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="L8" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
@@ -2013,7 +2086,12 @@
       <c r="J9" s="12">
         <v>7441.91</v>
       </c>
-      <c r="K9" s="8"/>
+      <c r="K9" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="L9" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
@@ -2040,7 +2118,12 @@
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
-      <c r="K10" s="8"/>
+      <c r="K10" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="L10" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
@@ -2069,7 +2152,12 @@
       <c r="J11" s="13">
         <v>11639.08</v>
       </c>
-      <c r="K11" s="9"/>
+      <c r="K11" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="L11" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
@@ -2100,8 +2188,13 @@
       <c r="J12" s="12">
         <v>43502.74</v>
       </c>
-      <c r="K12" s="8"/>
-      <c r="N12" s="18"/>
+      <c r="K12" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="L12" t="s">
+        <v>421</v>
+      </c>
+      <c r="N12" s="16"/>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
@@ -2132,7 +2225,12 @@
       <c r="J13" s="12">
         <v>6430.18</v>
       </c>
-      <c r="K13" s="8"/>
+      <c r="K13" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="L13" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
@@ -2165,7 +2263,12 @@
       <c r="J14" s="12">
         <v>35946.36</v>
       </c>
-      <c r="K14" s="8"/>
+      <c r="K14" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="L14" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
@@ -2194,7 +2297,12 @@
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
-      <c r="K15" s="8"/>
+      <c r="K15" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="L15" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
@@ -2217,9 +2325,14 @@
       </c>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
-      <c r="K16" s="8"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K16" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="L16" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>93</v>
       </c>
@@ -2250,9 +2363,14 @@
       <c r="J17" s="12">
         <v>23066.1</v>
       </c>
-      <c r="K17" s="8"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K17" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="L17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>1034</v>
       </c>
@@ -2277,9 +2395,14 @@
       </c>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
-      <c r="K18" s="8"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K18" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="L18" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>5000</v>
       </c>
@@ -2308,9 +2431,14 @@
       <c r="J19" s="12">
         <v>82234.33</v>
       </c>
-      <c r="K19" s="8"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K19" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="L19" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>5048</v>
       </c>
@@ -2339,9 +2467,14 @@
       <c r="J20" s="12">
         <v>90009.91</v>
       </c>
-      <c r="K20" s="8"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K20" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="L20" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9" t="s">
@@ -2368,9 +2501,14 @@
       <c r="J21" s="13">
         <v>272455.62</v>
       </c>
-      <c r="K21" s="9"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K21" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="L21" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>8</v>
       </c>
@@ -2397,9 +2535,14 @@
       <c r="J22" s="12">
         <v>24018.03</v>
       </c>
-      <c r="K22" s="8"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K22" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="L22" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>19</v>
       </c>
@@ -2428,9 +2571,14 @@
       <c r="J23" s="12">
         <v>17844.64</v>
       </c>
-      <c r="K23" s="8"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K23" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="L23" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>511</v>
       </c>
@@ -2453,9 +2601,14 @@
       </c>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
-      <c r="K24" s="8"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K24" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="L24" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>2002</v>
       </c>
@@ -2484,9 +2637,14 @@
       <c r="J25" s="12">
         <v>79.819999999999993</v>
       </c>
-      <c r="K25" s="8"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K25" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="L25" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>2034</v>
       </c>
@@ -2511,9 +2669,14 @@
       </c>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
-      <c r="K26" s="8"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K26" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="L26" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9" t="s">
@@ -2538,9 +2701,14 @@
       <c r="J27" s="13">
         <v>39144.21</v>
       </c>
-      <c r="K27" s="9"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K27" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="L27" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>122</v>
       </c>
@@ -2565,9 +2733,14 @@
       </c>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
-      <c r="K28" s="8"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K28" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="L28" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9" t="s">
@@ -2592,9 +2765,14 @@
       <c r="J29" s="13">
         <v>87.05</v>
       </c>
-      <c r="K29" s="9"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K29" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="L29" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10" t="s">
@@ -2621,9 +2799,11 @@
       <c r="J30" s="14">
         <v>323151.87</v>
       </c>
-      <c r="K30" s="10"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K30" s="6" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>167</v>
       </c>
@@ -2650,9 +2830,11 @@
       <c r="J31" s="12">
         <v>31445.41</v>
       </c>
-      <c r="K31" s="8"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K31" s="8" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>1025</v>
       </c>
@@ -2681,7 +2863,9 @@
       <c r="J32" s="12">
         <v>11816.93</v>
       </c>
-      <c r="K32" s="8"/>
+      <c r="K32" s="8" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
@@ -2706,7 +2890,9 @@
       </c>
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
-      <c r="K33" s="8"/>
+      <c r="K33" s="8" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
@@ -2733,7 +2919,9 @@
       </c>
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
-      <c r="K34" s="8"/>
+      <c r="K34" s="8" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
@@ -2760,7 +2948,9 @@
       <c r="J35" s="13">
         <v>38278.050000000003</v>
       </c>
-      <c r="K35" s="9"/>
+      <c r="K35" s="8" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
@@ -2791,7 +2981,9 @@
       <c r="J36" s="12">
         <v>27217.96</v>
       </c>
-      <c r="K36" s="8"/>
+      <c r="K36" s="8" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
@@ -2822,7 +3014,9 @@
       <c r="J37" s="12">
         <v>12900.88</v>
       </c>
-      <c r="K37" s="8"/>
+      <c r="K37" s="8" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
@@ -2851,7 +3045,9 @@
       </c>
       <c r="I38" s="12"/>
       <c r="J38" s="12"/>
-      <c r="K38" s="8"/>
+      <c r="K38" s="8" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
@@ -2876,7 +3072,9 @@
       </c>
       <c r="I39" s="12"/>
       <c r="J39" s="12"/>
-      <c r="K39" s="8"/>
+      <c r="K39" s="8" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
@@ -2909,7 +3107,9 @@
       <c r="J40" s="12">
         <v>18286.560000000001</v>
       </c>
-      <c r="K40" s="8"/>
+      <c r="K40" s="8" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
@@ -2934,7 +3134,9 @@
       </c>
       <c r="I41" s="12"/>
       <c r="J41" s="12"/>
-      <c r="K41" s="8"/>
+      <c r="K41" s="8" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
@@ -2959,7 +3161,9 @@
       </c>
       <c r="I42" s="12"/>
       <c r="J42" s="12"/>
-      <c r="K42" s="8"/>
+      <c r="K42" s="8" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
@@ -2990,7 +3194,9 @@
       <c r="J43" s="12">
         <v>36212.53</v>
       </c>
-      <c r="K43" s="8"/>
+      <c r="K43" s="8" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
@@ -3019,7 +3225,9 @@
       <c r="J44" s="12">
         <v>2089.4699999999998</v>
       </c>
-      <c r="K44" s="8"/>
+      <c r="K44" s="8" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
@@ -3044,7 +3252,9 @@
       </c>
       <c r="I45" s="12"/>
       <c r="J45" s="12"/>
-      <c r="K45" s="8"/>
+      <c r="K45" s="8" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
@@ -3073,7 +3283,9 @@
       <c r="J46" s="12">
         <v>3129.95</v>
       </c>
-      <c r="K46" s="8"/>
+      <c r="K46" s="8" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
@@ -3106,7 +3318,9 @@
       <c r="J47" s="12">
         <v>45958.93</v>
       </c>
-      <c r="K47" s="8"/>
+      <c r="K47" s="8" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
@@ -3131,7 +3345,9 @@
       </c>
       <c r="I48" s="12"/>
       <c r="J48" s="12"/>
-      <c r="K48" s="8"/>
+      <c r="K48" s="8" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
@@ -3156,7 +3372,9 @@
       </c>
       <c r="I49" s="12"/>
       <c r="J49" s="12"/>
-      <c r="K49" s="8"/>
+      <c r="K49" s="8" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="9"/>
@@ -3185,7 +3403,9 @@
       <c r="J50" s="13">
         <v>115931.41</v>
       </c>
-      <c r="K50" s="9"/>
+      <c r="K50" s="8" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
@@ -3216,7 +3436,9 @@
       <c r="J51" s="12">
         <v>2926.75</v>
       </c>
-      <c r="K51" s="8"/>
+      <c r="K51" s="8" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
@@ -3245,7 +3467,9 @@
       <c r="J52" s="12">
         <v>7098.69</v>
       </c>
-      <c r="K52" s="8"/>
+      <c r="K52" s="8" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
@@ -3274,7 +3498,9 @@
       <c r="J53" s="12">
         <v>253.92</v>
       </c>
-      <c r="K53" s="8"/>
+      <c r="K53" s="8" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
@@ -3303,7 +3529,9 @@
       <c r="J54" s="12">
         <v>13383.24</v>
       </c>
-      <c r="K54" s="8"/>
+      <c r="K54" s="8" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
@@ -3330,7 +3558,9 @@
       <c r="J55" s="13">
         <v>23662.61</v>
       </c>
-      <c r="K55" s="9"/>
+      <c r="K55" s="8" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
@@ -3355,7 +3585,9 @@
         <v>761.68</v>
       </c>
       <c r="J56" s="12"/>
-      <c r="K56" s="8"/>
+      <c r="K56" s="8" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
@@ -3374,7 +3606,9 @@
       </c>
       <c r="I57" s="13"/>
       <c r="J57" s="13"/>
-      <c r="K57" s="9"/>
+      <c r="K57" s="8" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
@@ -3403,7 +3637,9 @@
       <c r="J58" s="12">
         <v>614.15</v>
       </c>
-      <c r="K58" s="8"/>
+      <c r="K58" s="8" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
@@ -3428,7 +3664,9 @@
       <c r="J59" s="13">
         <v>614.15</v>
       </c>
-      <c r="K59" s="9"/>
+      <c r="K59" s="8" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
@@ -3453,7 +3691,9 @@
       </c>
       <c r="I60" s="12"/>
       <c r="J60" s="12"/>
-      <c r="K60" s="8"/>
+      <c r="K60" s="8" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
@@ -3478,7 +3718,9 @@
       </c>
       <c r="I61" s="12"/>
       <c r="J61" s="12"/>
-      <c r="K61" s="8"/>
+      <c r="K61" s="8" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
@@ -3503,7 +3745,9 @@
       </c>
       <c r="I62" s="12"/>
       <c r="J62" s="12"/>
-      <c r="K62" s="8"/>
+      <c r="K62" s="8" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
@@ -3528,7 +3772,9 @@
       </c>
       <c r="I63" s="12"/>
       <c r="J63" s="12"/>
-      <c r="K63" s="8"/>
+      <c r="K63" s="8" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="9"/>
@@ -3553,7 +3799,9 @@
       <c r="J64" s="13">
         <v>513.1</v>
       </c>
-      <c r="K64" s="9"/>
+      <c r="K64" s="8" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
@@ -3580,7 +3828,9 @@
       </c>
       <c r="I65" s="12"/>
       <c r="J65" s="12"/>
-      <c r="K65" s="8"/>
+      <c r="K65" s="8" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
@@ -3609,7 +3859,9 @@
       <c r="J66" s="12">
         <v>3072.04</v>
       </c>
-      <c r="K66" s="8"/>
+      <c r="K66" s="8" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
@@ -3636,7 +3888,9 @@
       </c>
       <c r="I67" s="12"/>
       <c r="J67" s="12"/>
-      <c r="K67" s="8"/>
+      <c r="K67" s="8" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
@@ -3667,7 +3921,9 @@
       <c r="J68" s="12">
         <v>65631.649999999994</v>
       </c>
-      <c r="K68" s="8"/>
+      <c r="K68" s="8" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
@@ -3694,7 +3950,9 @@
       </c>
       <c r="I69" s="12"/>
       <c r="J69" s="12"/>
-      <c r="K69" s="8"/>
+      <c r="K69" s="8" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
@@ -3725,7 +3983,9 @@
       <c r="J70" s="12">
         <v>2831.2</v>
       </c>
-      <c r="K70" s="8"/>
+      <c r="K70" s="8" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
@@ -3754,7 +4014,9 @@
       <c r="J71" s="13">
         <v>79719.94</v>
       </c>
-      <c r="K71" s="9"/>
+      <c r="K71" s="8" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
@@ -3783,7 +4045,9 @@
       <c r="J72" s="14">
         <v>217801.65</v>
       </c>
-      <c r="K72" s="10"/>
+      <c r="K72" s="8" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
@@ -3816,7 +4080,9 @@
       <c r="J73" s="12">
         <v>55090.41</v>
       </c>
-      <c r="K73" s="8"/>
+      <c r="K73" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="9"/>
@@ -3845,7 +4111,9 @@
       <c r="J74" s="13">
         <v>55090.41</v>
       </c>
-      <c r="K74" s="9"/>
+      <c r="K74" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
@@ -3878,7 +4146,9 @@
       <c r="J75" s="12">
         <v>7448.52</v>
       </c>
-      <c r="K75" s="8"/>
+      <c r="K75" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
@@ -3911,7 +4181,9 @@
       <c r="J76" s="12">
         <v>4190.66</v>
       </c>
-      <c r="K76" s="8"/>
+      <c r="K76" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
@@ -3944,7 +4216,9 @@
       <c r="J77" s="12">
         <v>580.22</v>
       </c>
-      <c r="K77" s="8"/>
+      <c r="K77" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
@@ -3977,7 +4251,9 @@
       <c r="J78" s="12">
         <v>4450.26</v>
       </c>
-      <c r="K78" s="8"/>
+      <c r="K78" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
@@ -4010,7 +4286,9 @@
       <c r="J79" s="12">
         <v>7063.31</v>
       </c>
-      <c r="K79" s="8"/>
+      <c r="K79" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="9"/>
@@ -4039,7 +4317,9 @@
       <c r="J80" s="13">
         <v>23733</v>
       </c>
-      <c r="K80" s="9"/>
+      <c r="K80" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
@@ -4072,7 +4352,9 @@
       <c r="J81" s="12">
         <v>132813.37</v>
       </c>
-      <c r="K81" s="8"/>
+      <c r="K81" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="9"/>
@@ -4101,7 +4383,9 @@
       <c r="J82" s="13">
         <v>132813.37</v>
       </c>
-      <c r="K82" s="9"/>
+      <c r="K82" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="8">
@@ -4126,7 +4410,9 @@
       </c>
       <c r="I83" s="12"/>
       <c r="J83" s="12"/>
-      <c r="K83" s="8"/>
+      <c r="K83" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="8">
@@ -4151,7 +4437,9 @@
       </c>
       <c r="I84" s="12"/>
       <c r="J84" s="12"/>
-      <c r="K84" s="8"/>
+      <c r="K84" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="8">
@@ -4180,7 +4468,9 @@
       <c r="J85" s="12">
         <v>12.58</v>
       </c>
-      <c r="K85" s="8"/>
+      <c r="K85" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="8">
@@ -4211,7 +4501,9 @@
       <c r="J86" s="12">
         <v>12116.51</v>
       </c>
-      <c r="K86" s="8"/>
+      <c r="K86" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="9"/>
@@ -4238,7 +4530,9 @@
       <c r="J87" s="13">
         <v>12158.27</v>
       </c>
-      <c r="K87" s="9"/>
+      <c r="K87" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="8">
@@ -4263,7 +4557,9 @@
         <v>446.95</v>
       </c>
       <c r="J88" s="12"/>
-      <c r="K88" s="8"/>
+      <c r="K88" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="9"/>
@@ -4282,7 +4578,9 @@
       </c>
       <c r="I89" s="13"/>
       <c r="J89" s="13"/>
-      <c r="K89" s="9"/>
+      <c r="K89" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
@@ -4305,7 +4603,9 @@
       </c>
       <c r="I90" s="12"/>
       <c r="J90" s="12"/>
-      <c r="K90" s="8"/>
+      <c r="K90" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="8">
@@ -4336,7 +4636,9 @@
       <c r="J91" s="12">
         <v>26330.78</v>
       </c>
-      <c r="K91" s="8"/>
+      <c r="K91" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="8">
@@ -4365,7 +4667,9 @@
       <c r="J92" s="12">
         <v>326.48</v>
       </c>
-      <c r="K92" s="8"/>
+      <c r="K92" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="8">
@@ -4396,7 +4700,9 @@
       <c r="J93" s="12">
         <v>389.09</v>
       </c>
-      <c r="K93" s="8"/>
+      <c r="K93" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="8">
@@ -4425,7 +4731,9 @@
       <c r="J94" s="12">
         <v>5021.25</v>
       </c>
-      <c r="K94" s="8"/>
+      <c r="K94" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="8">
@@ -4450,7 +4758,9 @@
       </c>
       <c r="I95" s="12"/>
       <c r="J95" s="12"/>
-      <c r="K95" s="8"/>
+      <c r="K95" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
@@ -4481,7 +4791,9 @@
       <c r="J96" s="12">
         <v>3120.66</v>
       </c>
-      <c r="K96" s="8"/>
+      <c r="K96" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="8">
@@ -4506,7 +4818,9 @@
       </c>
       <c r="I97" s="12"/>
       <c r="J97" s="12"/>
-      <c r="K97" s="8"/>
+      <c r="K97" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="8">
@@ -4539,7 +4853,9 @@
       <c r="J98" s="12">
         <v>31495.52</v>
       </c>
-      <c r="K98" s="8"/>
+      <c r="K98" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="8">
@@ -4572,7 +4888,9 @@
       <c r="J99" s="12">
         <v>35325.42</v>
       </c>
-      <c r="K99" s="8"/>
+      <c r="K99" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="8">
@@ -4603,7 +4921,9 @@
       <c r="J100" s="12">
         <v>7388.98</v>
       </c>
-      <c r="K100" s="8"/>
+      <c r="K100" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="8">
@@ -4636,7 +4956,9 @@
       <c r="J101" s="12">
         <v>5713.62</v>
       </c>
-      <c r="K101" s="8"/>
+      <c r="K101" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="8">
@@ -4667,7 +4989,9 @@
       <c r="J102" s="12">
         <v>3966.13</v>
       </c>
-      <c r="K102" s="8"/>
+      <c r="K102" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="8">
@@ -4698,7 +5022,9 @@
       <c r="J103" s="12">
         <v>8984.32</v>
       </c>
-      <c r="K103" s="8"/>
+      <c r="K103" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="9"/>
@@ -4727,7 +5053,9 @@
       <c r="J104" s="13">
         <v>127275.33</v>
       </c>
-      <c r="K104" s="9"/>
+      <c r="K104" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="8">
@@ -4758,7 +5086,9 @@
       <c r="J105" s="12">
         <v>3103.98</v>
       </c>
-      <c r="K105" s="8"/>
+      <c r="K105" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="8">
@@ -4789,7 +5119,9 @@
       <c r="J106" s="12">
         <v>823.57</v>
       </c>
-      <c r="K106" s="8"/>
+      <c r="K106" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="9"/>
@@ -4816,7 +5148,9 @@
       <c r="J107" s="13">
         <v>3927.56</v>
       </c>
-      <c r="K107" s="9"/>
+      <c r="K107" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="8">
@@ -4841,7 +5175,9 @@
       </c>
       <c r="I108" s="12"/>
       <c r="J108" s="12"/>
-      <c r="K108" s="8"/>
+      <c r="K108" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="8">
@@ -4866,7 +5202,9 @@
       </c>
       <c r="I109" s="12"/>
       <c r="J109" s="12"/>
-      <c r="K109" s="8"/>
+      <c r="K109" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="8">
@@ -4899,7 +5237,9 @@
       <c r="J110" s="12">
         <v>52310.79</v>
       </c>
-      <c r="K110" s="8"/>
+      <c r="K110" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="8">
@@ -4930,7 +5270,9 @@
       <c r="J111" s="12">
         <v>4517.96</v>
       </c>
-      <c r="K111" s="8"/>
+      <c r="K111" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="8">
@@ -4961,7 +5303,9 @@
       <c r="J112" s="12">
         <v>1480.89</v>
       </c>
-      <c r="K112" s="8"/>
+      <c r="K112" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="8">
@@ -4994,7 +5338,9 @@
       <c r="J113" s="12">
         <v>15627.85</v>
       </c>
-      <c r="K113" s="8"/>
+      <c r="K113" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="8">
@@ -5025,7 +5371,9 @@
       <c r="J114" s="12">
         <v>2296.0300000000002</v>
       </c>
-      <c r="K114" s="8"/>
+      <c r="K114" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="9"/>
@@ -5054,7 +5402,9 @@
       <c r="J115" s="13">
         <v>77142.87</v>
       </c>
-      <c r="K115" s="9"/>
+      <c r="K115" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="8">
@@ -5079,7 +5429,9 @@
         <v>630.80999999999995</v>
       </c>
       <c r="J116" s="12"/>
-      <c r="K116" s="8"/>
+      <c r="K116" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="9"/>
@@ -5098,7 +5450,9 @@
       </c>
       <c r="I117" s="13"/>
       <c r="J117" s="13"/>
-      <c r="K117" s="9"/>
+      <c r="K117" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="8">
@@ -5121,7 +5475,9 @@
       </c>
       <c r="I118" s="12"/>
       <c r="J118" s="12"/>
-      <c r="K118" s="8"/>
+      <c r="K118" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="8">
@@ -5146,7 +5502,9 @@
       </c>
       <c r="I119" s="12"/>
       <c r="J119" s="12"/>
-      <c r="K119" s="8"/>
+      <c r="K119" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="8">
@@ -5171,7 +5529,9 @@
       </c>
       <c r="I120" s="12"/>
       <c r="J120" s="12"/>
-      <c r="K120" s="8"/>
+      <c r="K120" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="8">
@@ -5202,7 +5562,9 @@
       <c r="J121" s="12">
         <v>5752.29</v>
       </c>
-      <c r="K121" s="8"/>
+      <c r="K121" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="8">
@@ -5233,7 +5595,9 @@
       <c r="J122" s="12">
         <v>14419.15</v>
       </c>
-      <c r="K122" s="8"/>
+      <c r="K122" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="8">
@@ -5266,7 +5630,9 @@
       <c r="J123" s="12">
         <v>203000.65</v>
       </c>
-      <c r="K123" s="8"/>
+      <c r="K123" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="8">
@@ -5299,7 +5665,9 @@
       <c r="J124" s="12">
         <v>9840.24</v>
       </c>
-      <c r="K124" s="8"/>
+      <c r="K124" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="8">
@@ -5328,7 +5696,9 @@
       <c r="J125" s="12">
         <v>3903.96</v>
       </c>
-      <c r="K125" s="8"/>
+      <c r="K125" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="8">
@@ -5359,7 +5729,9 @@
       <c r="J126" s="12">
         <v>5880.06</v>
       </c>
-      <c r="K126" s="8"/>
+      <c r="K126" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="8">
@@ -5390,7 +5762,9 @@
       <c r="J127" s="12">
         <v>11153.36</v>
       </c>
-      <c r="K127" s="8"/>
+      <c r="K127" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="8">
@@ -5423,7 +5797,9 @@
       <c r="J128" s="12">
         <v>3541.3</v>
       </c>
-      <c r="K128" s="8"/>
+      <c r="K128" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="8">
@@ -5454,7 +5830,9 @@
       <c r="J129" s="12">
         <v>2798.08</v>
       </c>
-      <c r="K129" s="8"/>
+      <c r="K129" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="8">
@@ -5485,7 +5863,9 @@
       <c r="J130" s="12">
         <v>2021.85</v>
       </c>
-      <c r="K130" s="8"/>
+      <c r="K130" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="8">
@@ -5518,7 +5898,9 @@
       <c r="J131" s="12">
         <v>10456.18</v>
       </c>
-      <c r="K131" s="8"/>
+      <c r="K131" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="8">
@@ -5549,7 +5931,9 @@
       <c r="J132" s="12">
         <v>2404.7600000000002</v>
       </c>
-      <c r="K132" s="8"/>
+      <c r="K132" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="8">
@@ -5582,7 +5966,9 @@
       <c r="J133" s="12">
         <v>13117.81</v>
       </c>
-      <c r="K133" s="8"/>
+      <c r="K133" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="8">
@@ -5615,7 +6001,9 @@
       <c r="J134" s="12">
         <v>8533.34</v>
       </c>
-      <c r="K134" s="8"/>
+      <c r="K134" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="8">
@@ -5648,7 +6036,9 @@
       <c r="J135" s="12">
         <v>17179.59</v>
       </c>
-      <c r="K135" s="8"/>
+      <c r="K135" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="9"/>
@@ -5677,7 +6067,9 @@
       <c r="J136" s="13">
         <v>314023.36</v>
       </c>
-      <c r="K136" s="9"/>
+      <c r="K136" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="8">
@@ -5702,7 +6094,9 @@
         <v>86.66</v>
       </c>
       <c r="J137" s="12"/>
-      <c r="K137" s="8"/>
+      <c r="K137" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="8">
@@ -5725,7 +6119,9 @@
       </c>
       <c r="I138" s="12"/>
       <c r="J138" s="12"/>
-      <c r="K138" s="8"/>
+      <c r="K138" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="9"/>
@@ -5744,7 +6140,9 @@
       </c>
       <c r="I139" s="13"/>
       <c r="J139" s="13"/>
-      <c r="K139" s="9"/>
+      <c r="K139" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="10"/>
@@ -5773,7 +6171,9 @@
       <c r="J140" s="14">
         <v>743839.13</v>
       </c>
-      <c r="K140" s="10"/>
+      <c r="K140" s="8" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="8">
@@ -5802,7 +6202,9 @@
       <c r="J141" s="12">
         <v>7241.48</v>
       </c>
-      <c r="K141" s="8"/>
+      <c r="K141" s="8" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="9"/>
@@ -5827,7 +6229,9 @@
       <c r="J142" s="13">
         <v>7241.48</v>
       </c>
-      <c r="K142" s="9"/>
+      <c r="K142" s="8" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="8">
@@ -5860,7 +6264,9 @@
       <c r="J143" s="12">
         <v>47764.639999999999</v>
       </c>
-      <c r="K143" s="8"/>
+      <c r="K143" s="8" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="8">
@@ -5889,7 +6295,9 @@
       <c r="J144" s="12">
         <v>5295.5</v>
       </c>
-      <c r="K144" s="8"/>
+      <c r="K144" s="8" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="8">
@@ -5920,7 +6328,9 @@
       <c r="J145" s="12">
         <v>26219.7</v>
       </c>
-      <c r="K145" s="8"/>
+      <c r="K145" s="8" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="8">
@@ -5949,7 +6359,9 @@
       <c r="J146" s="12">
         <v>20298</v>
       </c>
-      <c r="K146" s="8"/>
+      <c r="K146" s="8" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="8">
@@ -5972,7 +6384,9 @@
       </c>
       <c r="I147" s="12"/>
       <c r="J147" s="12"/>
-      <c r="K147" s="8"/>
+      <c r="K147" s="8" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="9"/>
@@ -6001,7 +6415,9 @@
       <c r="J148" s="13">
         <v>99577.84</v>
       </c>
-      <c r="K148" s="9"/>
+      <c r="K148" s="8" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="8">
@@ -6034,7 +6450,9 @@
       <c r="J149" s="12">
         <v>37937.360000000001</v>
       </c>
-      <c r="K149" s="8"/>
+      <c r="K149" s="8" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="8">
@@ -6057,7 +6475,9 @@
       </c>
       <c r="I150" s="12"/>
       <c r="J150" s="12"/>
-      <c r="K150" s="8"/>
+      <c r="K150" s="8" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="9"/>
@@ -6086,7 +6506,9 @@
       <c r="J151" s="13">
         <v>37937.360000000001</v>
       </c>
-      <c r="K151" s="9"/>
+      <c r="K151" s="8" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="8">
@@ -6117,7 +6539,9 @@
       <c r="J152" s="12">
         <v>8601.17</v>
       </c>
-      <c r="K152" s="8"/>
+      <c r="K152" s="8" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="9"/>
@@ -6144,7 +6568,9 @@
       <c r="J153" s="13">
         <v>8601.17</v>
       </c>
-      <c r="K153" s="9"/>
+      <c r="K153" s="8" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="8">
@@ -6173,7 +6599,9 @@
       <c r="J154" s="12">
         <v>2214.5</v>
       </c>
-      <c r="K154" s="8"/>
+      <c r="K154" s="8" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="9"/>
@@ -6198,7 +6626,9 @@
       <c r="J155" s="13">
         <v>2214.5</v>
       </c>
-      <c r="K155" s="9"/>
+      <c r="K155" s="8" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="8">
@@ -6223,7 +6653,9 @@
         <v>1192.5899999999999</v>
       </c>
       <c r="J156" s="12"/>
-      <c r="K156" s="8"/>
+      <c r="K156" s="8" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="9"/>
@@ -6242,7 +6674,9 @@
       </c>
       <c r="I157" s="13"/>
       <c r="J157" s="13"/>
-      <c r="K157" s="9"/>
+      <c r="K157" s="8" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="10"/>
@@ -6271,7 +6705,9 @@
       <c r="J158" s="14">
         <v>155572.35999999999</v>
       </c>
-      <c r="K158" s="10"/>
+      <c r="K158" s="8" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="8">
@@ -6300,7 +6736,9 @@
       <c r="J159" s="12">
         <v>17040.02</v>
       </c>
-      <c r="K159" s="8"/>
+      <c r="K159" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="8">
@@ -6333,7 +6771,9 @@
       <c r="J160" s="12">
         <v>48781.94</v>
       </c>
-      <c r="K160" s="8"/>
+      <c r="K160" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="8">
@@ -6366,7 +6806,9 @@
       <c r="J161" s="12">
         <v>6258.54</v>
       </c>
-      <c r="K161" s="8"/>
+      <c r="K161" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="8">
@@ -6399,7 +6841,9 @@
       <c r="J162" s="12">
         <v>36819.47</v>
       </c>
-      <c r="K162" s="8"/>
+      <c r="K162" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="8">
@@ -6424,7 +6868,9 @@
       </c>
       <c r="I163" s="12"/>
       <c r="J163" s="12"/>
-      <c r="K163" s="8"/>
+      <c r="K163" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="8">
@@ -6449,7 +6895,9 @@
       </c>
       <c r="I164" s="12"/>
       <c r="J164" s="12"/>
-      <c r="K164" s="8"/>
+      <c r="K164" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="8">
@@ -6474,7 +6922,9 @@
       </c>
       <c r="I165" s="12"/>
       <c r="J165" s="12"/>
-      <c r="K165" s="8"/>
+      <c r="K165" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="8">
@@ -6501,7 +6951,9 @@
       </c>
       <c r="I166" s="12"/>
       <c r="J166" s="12"/>
-      <c r="K166" s="8"/>
+      <c r="K166" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="8">
@@ -6532,7 +6984,9 @@
       <c r="J167" s="12">
         <v>451395.04</v>
       </c>
-      <c r="K167" s="8"/>
+      <c r="K167" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="8">
@@ -6557,7 +7011,9 @@
       </c>
       <c r="I168" s="12"/>
       <c r="J168" s="12"/>
-      <c r="K168" s="8"/>
+      <c r="K168" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="8">
@@ -6582,7 +7038,9 @@
       </c>
       <c r="I169" s="12"/>
       <c r="J169" s="12"/>
-      <c r="K169" s="8"/>
+      <c r="K169" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="8">
@@ -6609,7 +7067,9 @@
       </c>
       <c r="I170" s="12"/>
       <c r="J170" s="12"/>
-      <c r="K170" s="8"/>
+      <c r="K170" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="8">
@@ -6636,7 +7096,9 @@
       </c>
       <c r="I171" s="12"/>
       <c r="J171" s="12"/>
-      <c r="K171" s="8"/>
+      <c r="K171" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="8">
@@ -6659,7 +7121,9 @@
       </c>
       <c r="I172" s="12"/>
       <c r="J172" s="12"/>
-      <c r="K172" s="8"/>
+      <c r="K172" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="8">
@@ -6684,7 +7148,9 @@
       </c>
       <c r="I173" s="12"/>
       <c r="J173" s="12"/>
-      <c r="K173" s="8"/>
+      <c r="K173" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="8">
@@ -6709,7 +7175,9 @@
       </c>
       <c r="I174" s="12"/>
       <c r="J174" s="12"/>
-      <c r="K174" s="8"/>
+      <c r="K174" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="8">
@@ -6738,7 +7206,9 @@
       <c r="J175" s="12">
         <v>38171.86</v>
       </c>
-      <c r="K175" s="8"/>
+      <c r="K175" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="8">
@@ -6767,7 +7237,9 @@
       <c r="J176" s="12">
         <v>2190.2399999999998</v>
       </c>
-      <c r="K176" s="8"/>
+      <c r="K176" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="8">
@@ -6796,7 +7268,9 @@
       <c r="J177" s="12">
         <v>24821.52</v>
       </c>
-      <c r="K177" s="8"/>
+      <c r="K177" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="9"/>
@@ -6825,7 +7299,9 @@
       <c r="J178" s="13">
         <v>602325.81999999995</v>
       </c>
-      <c r="K178" s="9"/>
+      <c r="K178" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="8">
@@ -6854,7 +7330,9 @@
       <c r="J179" s="12">
         <v>86941.15</v>
       </c>
-      <c r="K179" s="8"/>
+      <c r="K179" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="8">
@@ -6883,7 +7361,9 @@
       <c r="J180" s="12">
         <v>78799.03</v>
       </c>
-      <c r="K180" s="8"/>
+      <c r="K180" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="8">
@@ -6914,7 +7394,9 @@
       <c r="J181" s="12">
         <v>59287.66</v>
       </c>
-      <c r="K181" s="8"/>
+      <c r="K181" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="8">
@@ -6945,7 +7427,9 @@
       <c r="J182" s="12">
         <v>17496.650000000001</v>
       </c>
-      <c r="K182" s="8"/>
+      <c r="K182" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="8">
@@ -6976,7 +7460,9 @@
       <c r="J183" s="12">
         <v>23245.02</v>
       </c>
-      <c r="K183" s="8"/>
+      <c r="K183" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="9"/>
@@ -7003,7 +7489,9 @@
       <c r="J184" s="13">
         <v>265769.53999999998</v>
       </c>
-      <c r="K184" s="9"/>
+      <c r="K184" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="8">
@@ -7032,7 +7520,9 @@
       <c r="J185" s="12">
         <v>3903.9</v>
       </c>
-      <c r="K185" s="8"/>
+      <c r="K185" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="8">
@@ -7061,7 +7551,9 @@
       <c r="J186" s="12">
         <v>1383.77</v>
       </c>
-      <c r="K186" s="8"/>
+      <c r="K186" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="8">
@@ -7090,7 +7582,9 @@
       <c r="J187" s="12">
         <v>11780.16</v>
       </c>
-      <c r="K187" s="8"/>
+      <c r="K187" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="8">
@@ -7121,7 +7615,9 @@
       <c r="J188" s="12">
         <v>13622.54</v>
       </c>
-      <c r="K188" s="8"/>
+      <c r="K188" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="8">
@@ -7144,7 +7640,9 @@
       </c>
       <c r="I189" s="12"/>
       <c r="J189" s="12"/>
-      <c r="K189" s="8"/>
+      <c r="K189" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="9"/>
@@ -7171,7 +7669,9 @@
       <c r="J190" s="13">
         <v>30690.38</v>
       </c>
-      <c r="K190" s="9"/>
+      <c r="K190" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="8">
@@ -7202,7 +7702,9 @@
       <c r="J191" s="12">
         <v>49911.040000000001</v>
       </c>
-      <c r="K191" s="8"/>
+      <c r="K191" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="8">
@@ -7231,7 +7733,9 @@
       <c r="J192" s="12">
         <v>10617.47</v>
       </c>
-      <c r="K192" s="8"/>
+      <c r="K192" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="8">
@@ -7260,7 +7764,9 @@
       <c r="J193" s="12">
         <v>5783.19</v>
       </c>
-      <c r="K193" s="8"/>
+      <c r="K193" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="9"/>
@@ -7287,7 +7793,9 @@
       <c r="J194" s="13">
         <v>66311.710000000006</v>
       </c>
-      <c r="K194" s="9"/>
+      <c r="K194" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="8">
@@ -7314,7 +7822,9 @@
       </c>
       <c r="I195" s="12"/>
       <c r="J195" s="12"/>
-      <c r="K195" s="8"/>
+      <c r="K195" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="8">
@@ -7341,7 +7851,9 @@
       </c>
       <c r="I196" s="12"/>
       <c r="J196" s="12"/>
-      <c r="K196" s="8"/>
+      <c r="K196" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="8">
@@ -7372,7 +7884,9 @@
       <c r="J197" s="12">
         <v>10045.209999999999</v>
       </c>
-      <c r="K197" s="8"/>
+      <c r="K197" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="8">
@@ -7403,7 +7917,9 @@
       <c r="J198" s="12">
         <v>9049.16</v>
       </c>
-      <c r="K198" s="8"/>
+      <c r="K198" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="8">
@@ -7432,7 +7948,9 @@
       <c r="J199" s="12">
         <v>574.80999999999995</v>
       </c>
-      <c r="K199" s="8"/>
+      <c r="K199" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="8">
@@ -7461,7 +7979,9 @@
       <c r="J200" s="12">
         <v>1945.36</v>
       </c>
-      <c r="K200" s="8"/>
+      <c r="K200" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="8">
@@ -7484,7 +8004,9 @@
       </c>
       <c r="I201" s="12"/>
       <c r="J201" s="12"/>
-      <c r="K201" s="8"/>
+      <c r="K201" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="8">
@@ -7513,7 +8035,9 @@
       <c r="J202" s="12">
         <v>819</v>
       </c>
-      <c r="K202" s="8"/>
+      <c r="K202" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="9"/>
@@ -7540,7 +8064,9 @@
       <c r="J203" s="13">
         <v>22880.19</v>
       </c>
-      <c r="K203" s="9"/>
+      <c r="K203" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="8">
@@ -7573,7 +8099,9 @@
       <c r="J204" s="12">
         <v>6580.65</v>
       </c>
-      <c r="K204" s="8"/>
+      <c r="K204" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="8">
@@ -7606,7 +8134,9 @@
       <c r="J205" s="12">
         <v>7114.01</v>
       </c>
-      <c r="K205" s="8"/>
+      <c r="K205" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="8">
@@ -7635,7 +8165,9 @@
       <c r="J206" s="12">
         <v>974.47</v>
       </c>
-      <c r="K206" s="8"/>
+      <c r="K206" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="8">
@@ -7664,7 +8196,9 @@
       <c r="J207" s="12">
         <v>2985.59</v>
       </c>
-      <c r="K207" s="8"/>
+      <c r="K207" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="8">
@@ -7693,7 +8227,9 @@
       <c r="J208" s="12">
         <v>2956.42</v>
       </c>
-      <c r="K208" s="8"/>
+      <c r="K208" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="8">
@@ -7724,7 +8260,9 @@
       <c r="J209" s="12">
         <v>255.2</v>
       </c>
-      <c r="K209" s="8"/>
+      <c r="K209" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="8">
@@ -7753,7 +8291,9 @@
       <c r="J210" s="12">
         <v>3228.48</v>
       </c>
-      <c r="K210" s="8"/>
+      <c r="K210" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="8">
@@ -7784,7 +8324,9 @@
       <c r="J211" s="12">
         <v>9805.3700000000008</v>
       </c>
-      <c r="K211" s="8"/>
+      <c r="K211" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="8">
@@ -7815,7 +8357,9 @@
       <c r="J212" s="12">
         <v>29472.82</v>
       </c>
-      <c r="K212" s="8"/>
+      <c r="K212" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="8">
@@ -7844,7 +8388,9 @@
       <c r="J213" s="12">
         <v>523.1</v>
       </c>
-      <c r="K213" s="8"/>
+      <c r="K213" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="8">
@@ -7875,7 +8421,9 @@
       <c r="J214" s="12">
         <v>16283.59</v>
       </c>
-      <c r="K214" s="8"/>
+      <c r="K214" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="8">
@@ -7904,7 +8452,9 @@
       <c r="J215" s="12">
         <v>2293.35</v>
       </c>
-      <c r="K215" s="8"/>
+      <c r="K215" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="9"/>
@@ -7933,7 +8483,9 @@
       <c r="J216" s="13">
         <v>82473.119999999995</v>
       </c>
-      <c r="K216" s="9"/>
+      <c r="K216" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="8">
@@ -7964,7 +8516,9 @@
       <c r="J217" s="12">
         <v>23909.13</v>
       </c>
-      <c r="K217" s="8"/>
+      <c r="K217" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="8">
@@ -7993,7 +8547,9 @@
       <c r="J218" s="12">
         <v>6055.96</v>
       </c>
-      <c r="K218" s="8"/>
+      <c r="K218" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="8">
@@ -8022,7 +8578,9 @@
       <c r="J219" s="12">
         <v>36746.94</v>
       </c>
-      <c r="K219" s="8"/>
+      <c r="K219" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="8">
@@ -8051,7 +8609,9 @@
       <c r="J220" s="12">
         <v>30603.99</v>
       </c>
-      <c r="K220" s="8"/>
+      <c r="K220" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="8">
@@ -8080,7 +8640,9 @@
       <c r="J221" s="12">
         <v>3242.45</v>
       </c>
-      <c r="K221" s="8"/>
+      <c r="K221" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="8">
@@ -8109,7 +8671,9 @@
       <c r="J222" s="12">
         <v>5419.08</v>
       </c>
-      <c r="K222" s="8"/>
+      <c r="K222" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="8">
@@ -8138,7 +8702,9 @@
       <c r="J223" s="12">
         <v>2154.19</v>
       </c>
-      <c r="K223" s="8"/>
+      <c r="K223" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="9"/>
@@ -8165,7 +8731,9 @@
       <c r="J224" s="13">
         <v>108131.77</v>
       </c>
-      <c r="K224" s="9"/>
+      <c r="K224" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="8">
@@ -8192,7 +8760,9 @@
       </c>
       <c r="I225" s="12"/>
       <c r="J225" s="12"/>
-      <c r="K225" s="8"/>
+      <c r="K225" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="8">
@@ -8219,7 +8789,9 @@
       </c>
       <c r="I226" s="12"/>
       <c r="J226" s="12"/>
-      <c r="K226" s="8"/>
+      <c r="K226" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="8">
@@ -8244,7 +8816,9 @@
       </c>
       <c r="I227" s="12"/>
       <c r="J227" s="12"/>
-      <c r="K227" s="8"/>
+      <c r="K227" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="8">
@@ -8273,7 +8847,9 @@
       <c r="J228" s="12">
         <v>258.7</v>
       </c>
-      <c r="K228" s="8"/>
+      <c r="K228" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="8">
@@ -8296,7 +8872,9 @@
       </c>
       <c r="I229" s="12"/>
       <c r="J229" s="12"/>
-      <c r="K229" s="8"/>
+      <c r="K229" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="8">
@@ -8325,7 +8903,9 @@
       <c r="J230" s="12">
         <v>62.38</v>
       </c>
-      <c r="K230" s="8"/>
+      <c r="K230" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="8">
@@ -8348,7 +8928,9 @@
       </c>
       <c r="I231" s="12"/>
       <c r="J231" s="12"/>
-      <c r="K231" s="8"/>
+      <c r="K231" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="8">
@@ -8375,7 +8957,9 @@
       </c>
       <c r="I232" s="12"/>
       <c r="J232" s="12"/>
-      <c r="K232" s="8"/>
+      <c r="K232" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="8">
@@ -8404,7 +8988,9 @@
       <c r="J233" s="12">
         <v>359.71</v>
       </c>
-      <c r="K233" s="8"/>
+      <c r="K233" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="8">
@@ -8431,7 +9017,9 @@
       </c>
       <c r="I234" s="12"/>
       <c r="J234" s="12"/>
-      <c r="K234" s="8"/>
+      <c r="K234" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="8">
@@ -8460,7 +9048,9 @@
       <c r="J235" s="12">
         <v>528.41</v>
       </c>
-      <c r="K235" s="8"/>
+      <c r="K235" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="8">
@@ -8485,7 +9075,9 @@
       </c>
       <c r="I236" s="12"/>
       <c r="J236" s="12"/>
-      <c r="K236" s="8"/>
+      <c r="K236" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="9"/>
@@ -8512,7 +9104,9 @@
       <c r="J237" s="13">
         <v>1610.27</v>
       </c>
-      <c r="K237" s="9"/>
+      <c r="K237" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="8">
@@ -8541,7 +9135,9 @@
       <c r="J238" s="12">
         <v>12287.7</v>
       </c>
-      <c r="K238" s="8"/>
+      <c r="K238" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="8">
@@ -8570,7 +9166,9 @@
       <c r="J239" s="12">
         <v>1053.6600000000001</v>
       </c>
-      <c r="K239" s="8"/>
+      <c r="K239" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="8">
@@ -8599,7 +9197,9 @@
       <c r="J240" s="12">
         <v>38893.89</v>
       </c>
-      <c r="K240" s="8"/>
+      <c r="K240" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="8">
@@ -8628,7 +9228,9 @@
       <c r="J241" s="12">
         <v>10824.89</v>
       </c>
-      <c r="K241" s="8"/>
+      <c r="K241" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="8">
@@ -8657,7 +9259,9 @@
       <c r="J242" s="12">
         <v>26955.03</v>
       </c>
-      <c r="K242" s="8"/>
+      <c r="K242" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="8">
@@ -8688,7 +9292,9 @@
       <c r="J243" s="12">
         <v>26007.81</v>
       </c>
-      <c r="K243" s="8"/>
+      <c r="K243" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="8">
@@ -8711,7 +9317,9 @@
       </c>
       <c r="I244" s="12"/>
       <c r="J244" s="12"/>
-      <c r="K244" s="8"/>
+      <c r="K244" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="9"/>
@@ -8740,7 +9348,9 @@
       <c r="J245" s="13">
         <v>116022.99</v>
       </c>
-      <c r="K245" s="9"/>
+      <c r="K245" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="8">
@@ -8771,7 +9381,9 @@
       <c r="J246" s="12">
         <v>1953.46</v>
       </c>
-      <c r="K246" s="8"/>
+      <c r="K246" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="8">
@@ -8800,7 +9412,9 @@
       <c r="J247" s="12">
         <v>3328.01</v>
       </c>
-      <c r="K247" s="8"/>
+      <c r="K247" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="8">
@@ -8829,7 +9443,9 @@
       <c r="J248" s="12">
         <v>1677.15</v>
       </c>
-      <c r="K248" s="8"/>
+      <c r="K248" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="8">
@@ -8858,7 +9474,9 @@
       <c r="J249" s="12">
         <v>2913.96</v>
       </c>
-      <c r="K249" s="8"/>
+      <c r="K249" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="9"/>
@@ -8885,7 +9503,9 @@
       <c r="J250" s="13">
         <v>9872.59</v>
       </c>
-      <c r="K250" s="9"/>
+      <c r="K250" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="10"/>
@@ -8914,7 +9534,9 @@
       <c r="J251" s="14">
         <v>1299049.1299999999</v>
       </c>
-      <c r="K251" s="10"/>
+      <c r="K251" s="8" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="8">
@@ -8939,7 +9561,9 @@
         <v>220.27</v>
       </c>
       <c r="J252" s="12"/>
-      <c r="K252" s="8"/>
+      <c r="K252" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="8">
@@ -8968,7 +9592,9 @@
       <c r="J253" s="12">
         <v>3784.48</v>
       </c>
-      <c r="K253" s="8"/>
+      <c r="K253" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="9"/>
@@ -8995,7 +9621,9 @@
       <c r="J254" s="13">
         <v>3784.48</v>
       </c>
-      <c r="K254" s="9"/>
+      <c r="K254" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="8">
@@ -9026,7 +9654,9 @@
       <c r="J255" s="12">
         <v>2488.7399999999998</v>
       </c>
-      <c r="K255" s="8"/>
+      <c r="K255" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="8">
@@ -9057,7 +9687,9 @@
       <c r="J256" s="12">
         <v>3769.55</v>
       </c>
-      <c r="K256" s="8"/>
+      <c r="K256" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="8">
@@ -9088,7 +9720,9 @@
       <c r="J257" s="12">
         <v>1271.81</v>
       </c>
-      <c r="K257" s="8"/>
+      <c r="K257" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="8">
@@ -9111,7 +9745,9 @@
       </c>
       <c r="I258" s="12"/>
       <c r="J258" s="12"/>
-      <c r="K258" s="8"/>
+      <c r="K258" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="9"/>
@@ -9138,7 +9774,9 @@
       <c r="J259" s="13">
         <v>7530.11</v>
       </c>
-      <c r="K259" s="9"/>
+      <c r="K259" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="8">
@@ -9163,7 +9801,9 @@
         <v>1152.27</v>
       </c>
       <c r="J260" s="12"/>
-      <c r="K260" s="8"/>
+      <c r="K260" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="8">
@@ -9194,7 +9834,9 @@
       <c r="J261" s="12">
         <v>6495</v>
       </c>
-      <c r="K261" s="8"/>
+      <c r="K261" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="8">
@@ -9217,7 +9859,9 @@
       </c>
       <c r="I262" s="12"/>
       <c r="J262" s="12"/>
-      <c r="K262" s="8"/>
+      <c r="K262" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="8">
@@ -9240,7 +9884,9 @@
       </c>
       <c r="I263" s="12"/>
       <c r="J263" s="12"/>
-      <c r="K263" s="8"/>
+      <c r="K263" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="8">
@@ -9263,7 +9909,9 @@
       </c>
       <c r="I264" s="12"/>
       <c r="J264" s="12"/>
-      <c r="K264" s="8"/>
+      <c r="K264" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="8">
@@ -9286,7 +9934,9 @@
       </c>
       <c r="I265" s="12"/>
       <c r="J265" s="12"/>
-      <c r="K265" s="8"/>
+      <c r="K265" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="8">
@@ -9309,7 +9959,9 @@
       </c>
       <c r="I266" s="12"/>
       <c r="J266" s="12"/>
-      <c r="K266" s="8"/>
+      <c r="K266" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="8">
@@ -9338,7 +9990,9 @@
       <c r="J267" s="12">
         <v>26679.72</v>
       </c>
-      <c r="K267" s="8"/>
+      <c r="K267" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="9"/>
@@ -9365,7 +10019,9 @@
       <c r="J268" s="13">
         <v>33174.720000000001</v>
       </c>
-      <c r="K268" s="9"/>
+      <c r="K268" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="8">
@@ -9390,7 +10046,9 @@
         <v>5589.65</v>
       </c>
       <c r="J269" s="12"/>
-      <c r="K269" s="8"/>
+      <c r="K269" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="8">
@@ -9413,7 +10071,9 @@
       </c>
       <c r="I270" s="12"/>
       <c r="J270" s="12"/>
-      <c r="K270" s="8"/>
+      <c r="K270" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="8">
@@ -9436,7 +10096,9 @@
       </c>
       <c r="I271" s="12"/>
       <c r="J271" s="12"/>
-      <c r="K271" s="8"/>
+      <c r="K271" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="9"/>
@@ -9455,7 +10117,9 @@
       </c>
       <c r="I272" s="13"/>
       <c r="J272" s="13"/>
-      <c r="K272" s="9"/>
+      <c r="K272" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="8">
@@ -9484,7 +10148,9 @@
       <c r="J273" s="12">
         <v>1197.55</v>
       </c>
-      <c r="K273" s="8"/>
+      <c r="K273" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="8">
@@ -9509,7 +10175,9 @@
       <c r="J274" s="12">
         <v>389.89</v>
       </c>
-      <c r="K274" s="8"/>
+      <c r="K274" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="8">
@@ -9534,7 +10202,9 @@
       <c r="J275" s="12">
         <v>414.19</v>
       </c>
-      <c r="K275" s="8"/>
+      <c r="K275" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="8">
@@ -9559,7 +10229,9 @@
       <c r="J276" s="12">
         <v>298.33999999999997</v>
       </c>
-      <c r="K276" s="8"/>
+      <c r="K276" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="8">
@@ -9584,7 +10256,9 @@
       <c r="J277" s="12">
         <v>133.22</v>
       </c>
-      <c r="K277" s="8"/>
+      <c r="K277" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="9"/>
@@ -9609,7 +10283,9 @@
       <c r="J278" s="13">
         <v>2433.21</v>
       </c>
-      <c r="K278" s="9"/>
+      <c r="K278" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="8">
@@ -9636,7 +10312,9 @@
       </c>
       <c r="I279" s="12"/>
       <c r="J279" s="12"/>
-      <c r="K279" s="8"/>
+      <c r="K279" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="8">
@@ -9669,7 +10347,9 @@
       <c r="J280" s="12">
         <v>286.56</v>
       </c>
-      <c r="K280" s="8"/>
+      <c r="K280" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="8">
@@ -9698,7 +10378,9 @@
       </c>
       <c r="I281" s="12"/>
       <c r="J281" s="12"/>
-      <c r="K281" s="8"/>
+      <c r="K281" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="8">
@@ -9729,7 +10411,9 @@
       <c r="J282" s="12">
         <v>143.28</v>
       </c>
-      <c r="K282" s="8"/>
+      <c r="K282" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="8">
@@ -9762,7 +10446,9 @@
       <c r="J283" s="12">
         <v>214.92</v>
       </c>
-      <c r="K283" s="8"/>
+      <c r="K283" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="8">
@@ -9791,7 +10477,9 @@
       </c>
       <c r="I284" s="12"/>
       <c r="J284" s="12"/>
-      <c r="K284" s="8"/>
+      <c r="K284" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="8">
@@ -9824,7 +10512,9 @@
       <c r="J285" s="12">
         <v>573.12</v>
       </c>
-      <c r="K285" s="8"/>
+      <c r="K285" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="9"/>
@@ -9853,7 +10543,9 @@
       <c r="J286" s="13">
         <v>1325.94</v>
       </c>
-      <c r="K286" s="9"/>
+      <c r="K286" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="8">
@@ -9884,7 +10576,9 @@
       <c r="J287" s="12">
         <v>2055.15</v>
       </c>
-      <c r="K287" s="8"/>
+      <c r="K287" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="8">
@@ -9911,7 +10605,9 @@
       </c>
       <c r="I288" s="12"/>
       <c r="J288" s="12"/>
-      <c r="K288" s="8"/>
+      <c r="K288" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="8">
@@ -9940,7 +10636,9 @@
       <c r="J289" s="12">
         <v>673.74</v>
       </c>
-      <c r="K289" s="8"/>
+      <c r="K289" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="8">
@@ -9965,7 +10663,9 @@
       </c>
       <c r="I290" s="12"/>
       <c r="J290" s="12"/>
-      <c r="K290" s="8"/>
+      <c r="K290" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="9"/>
@@ -9994,7 +10694,9 @@
       <c r="J291" s="13">
         <v>3202.15</v>
       </c>
-      <c r="K291" s="9"/>
+      <c r="K291" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="8">
@@ -10025,7 +10727,9 @@
       <c r="J292" s="12">
         <v>2918.44</v>
       </c>
-      <c r="K292" s="8"/>
+      <c r="K292" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="8">
@@ -10052,7 +10756,9 @@
       </c>
       <c r="I293" s="12"/>
       <c r="J293" s="12"/>
-      <c r="K293" s="8"/>
+      <c r="K293" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="8">
@@ -10081,7 +10787,9 @@
       <c r="J294" s="12">
         <v>6898.43</v>
       </c>
-      <c r="K294" s="8"/>
+      <c r="K294" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="8">
@@ -10110,7 +10818,9 @@
       <c r="J295" s="12">
         <v>1267.2</v>
       </c>
-      <c r="K295" s="8"/>
+      <c r="K295" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="8">
@@ -10137,7 +10847,9 @@
       </c>
       <c r="I296" s="12"/>
       <c r="J296" s="12"/>
-      <c r="K296" s="8"/>
+      <c r="K296" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="8">
@@ -10160,7 +10872,9 @@
       </c>
       <c r="I297" s="12"/>
       <c r="J297" s="12"/>
-      <c r="K297" s="8"/>
+      <c r="K297" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="9"/>
@@ -10189,7 +10903,9 @@
       <c r="J298" s="13">
         <v>10596.8</v>
       </c>
-      <c r="K298" s="9"/>
+      <c r="K298" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="8">
@@ -10222,7 +10938,9 @@
       <c r="J299" s="12">
         <v>29783.95</v>
       </c>
-      <c r="K299" s="8"/>
+      <c r="K299" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="8">
@@ -10253,7 +10971,9 @@
       <c r="J300" s="12">
         <v>3459.03</v>
       </c>
-      <c r="K300" s="8"/>
+      <c r="K300" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="8">
@@ -10284,7 +11004,9 @@
       <c r="J301" s="12">
         <v>4598.04</v>
       </c>
-      <c r="K301" s="8"/>
+      <c r="K301" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="8">
@@ -10315,7 +11037,9 @@
       <c r="J302" s="12">
         <v>3288.52</v>
       </c>
-      <c r="K302" s="8"/>
+      <c r="K302" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="8">
@@ -10348,7 +11072,9 @@
       <c r="J303" s="12">
         <v>5427.05</v>
       </c>
-      <c r="K303" s="8"/>
+      <c r="K303" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="8">
@@ -10379,7 +11105,9 @@
       <c r="J304" s="12">
         <v>4318.92</v>
       </c>
-      <c r="K304" s="8"/>
+      <c r="K304" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="8">
@@ -10410,7 +11138,9 @@
       <c r="J305" s="12">
         <v>2610.88</v>
       </c>
-      <c r="K305" s="8"/>
+      <c r="K305" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="8">
@@ -10441,7 +11171,9 @@
       <c r="J306" s="12">
         <v>3132.82</v>
       </c>
-      <c r="K306" s="8"/>
+      <c r="K306" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="9"/>
@@ -10470,7 +11202,9 @@
       <c r="J307" s="13">
         <v>56619.25</v>
       </c>
-      <c r="K307" s="9"/>
+      <c r="K307" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="8">
@@ -10503,7 +11237,9 @@
       <c r="J308" s="12">
         <v>41483.040000000001</v>
       </c>
-      <c r="K308" s="8"/>
+      <c r="K308" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="9"/>
@@ -10532,7 +11268,9 @@
       <c r="J309" s="13">
         <v>41483.040000000001</v>
       </c>
-      <c r="K309" s="9"/>
+      <c r="K309" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="8">
@@ -10557,7 +11295,9 @@
       </c>
       <c r="I310" s="12"/>
       <c r="J310" s="12"/>
-      <c r="K310" s="8"/>
+      <c r="K310" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="8">
@@ -10582,7 +11322,9 @@
       </c>
       <c r="I311" s="12"/>
       <c r="J311" s="12"/>
-      <c r="K311" s="8"/>
+      <c r="K311" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="8">
@@ -10605,7 +11347,9 @@
       </c>
       <c r="I312" s="12"/>
       <c r="J312" s="12"/>
-      <c r="K312" s="8"/>
+      <c r="K312" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="9"/>
@@ -10632,7 +11376,9 @@
       <c r="J313" s="13">
         <v>74.010000000000005</v>
       </c>
-      <c r="K313" s="9"/>
+      <c r="K313" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="8">
@@ -10661,7 +11407,9 @@
       <c r="J314" s="12">
         <v>32031.599999999999</v>
       </c>
-      <c r="K314" s="8"/>
+      <c r="K314" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="9"/>
@@ -10686,7 +11434,9 @@
       <c r="J315" s="13">
         <v>32031.599999999999</v>
       </c>
-      <c r="K315" s="9"/>
+      <c r="K315" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="8">
@@ -10717,7 +11467,9 @@
       <c r="J316" s="12">
         <v>4147.16</v>
       </c>
-      <c r="K316" s="8"/>
+      <c r="K316" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="8">
@@ -10748,7 +11500,9 @@
       <c r="J317" s="12">
         <v>1575.75</v>
       </c>
-      <c r="K317" s="8"/>
+      <c r="K317" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="8">
@@ -10777,7 +11531,9 @@
       <c r="J318" s="12">
         <v>2141.63</v>
       </c>
-      <c r="K318" s="8"/>
+      <c r="K318" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="8">
@@ -10808,7 +11564,9 @@
       <c r="J319" s="12">
         <v>2331.29</v>
       </c>
-      <c r="K319" s="8"/>
+      <c r="K319" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="8">
@@ -10837,7 +11595,9 @@
       <c r="J320" s="12">
         <v>346.62</v>
       </c>
-      <c r="K320" s="8"/>
+      <c r="K320" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="8">
@@ -10860,7 +11620,9 @@
       </c>
       <c r="I321" s="12"/>
       <c r="J321" s="12"/>
-      <c r="K321" s="8"/>
+      <c r="K321" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="8">
@@ -10889,7 +11651,9 @@
       <c r="J322" s="12">
         <v>766.97</v>
       </c>
-      <c r="K322" s="8"/>
+      <c r="K322" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="8">
@@ -10912,7 +11676,9 @@
       </c>
       <c r="I323" s="12"/>
       <c r="J323" s="12"/>
-      <c r="K323" s="8"/>
+      <c r="K323" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="8">
@@ -10941,7 +11707,9 @@
       <c r="J324" s="12">
         <v>515.47</v>
       </c>
-      <c r="K324" s="8"/>
+      <c r="K324" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="8">
@@ -10972,7 +11740,9 @@
       <c r="J325" s="12">
         <v>399.76</v>
       </c>
-      <c r="K325" s="8"/>
+      <c r="K325" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="8">
@@ -11001,7 +11771,9 @@
       <c r="J326" s="12">
         <v>3102.04</v>
       </c>
-      <c r="K326" s="8"/>
+      <c r="K326" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="8">
@@ -11032,7 +11804,9 @@
       <c r="J327" s="12">
         <v>2730.3</v>
       </c>
-      <c r="K327" s="8"/>
+      <c r="K327" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="8">
@@ -11057,7 +11831,9 @@
       </c>
       <c r="I328" s="12"/>
       <c r="J328" s="12"/>
-      <c r="K328" s="8"/>
+      <c r="K328" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="8">
@@ -11088,7 +11864,9 @@
       <c r="J329" s="12">
         <v>425.42</v>
       </c>
-      <c r="K329" s="8"/>
+      <c r="K329" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="9"/>
@@ -11115,7 +11893,9 @@
       <c r="J330" s="13">
         <v>18482.46</v>
       </c>
-      <c r="K330" s="9"/>
+      <c r="K330" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="8">
@@ -11140,7 +11920,9 @@
         <v>1538.65</v>
       </c>
       <c r="J331" s="12"/>
-      <c r="K331" s="8"/>
+      <c r="K331" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="9"/>
@@ -11159,7 +11941,9 @@
       </c>
       <c r="I332" s="13"/>
       <c r="J332" s="13"/>
-      <c r="K332" s="9"/>
+      <c r="K332" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="8">
@@ -11188,7 +11972,9 @@
       <c r="J333" s="12">
         <v>6974.22</v>
       </c>
-      <c r="K333" s="8"/>
+      <c r="K333" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="9"/>
@@ -11213,7 +11999,9 @@
       <c r="J334" s="13">
         <v>6974.22</v>
       </c>
-      <c r="K334" s="9"/>
+      <c r="K334" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="8">
@@ -11244,7 +12032,9 @@
       <c r="J335" s="12">
         <v>4269.6400000000003</v>
       </c>
-      <c r="K335" s="8"/>
+      <c r="K335" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="8">
@@ -11275,7 +12065,9 @@
       <c r="J336" s="12">
         <v>958.71</v>
       </c>
-      <c r="K336" s="8"/>
+      <c r="K336" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="8">
@@ -11306,7 +12098,9 @@
       <c r="J337" s="12">
         <v>735.81</v>
       </c>
-      <c r="K337" s="8"/>
+      <c r="K337" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="8">
@@ -11337,7 +12131,9 @@
       <c r="J338" s="12">
         <v>2129.64</v>
       </c>
-      <c r="K338" s="8"/>
+      <c r="K338" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="8">
@@ -11368,7 +12164,9 @@
       <c r="J339" s="12">
         <v>1307.8699999999999</v>
       </c>
-      <c r="K339" s="8"/>
+      <c r="K339" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="8">
@@ -11399,7 +12197,9 @@
       <c r="J340" s="12">
         <v>585.67999999999995</v>
       </c>
-      <c r="K340" s="8"/>
+      <c r="K340" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="8">
@@ -11430,7 +12230,9 @@
       <c r="J341" s="12">
         <v>994.1</v>
       </c>
-      <c r="K341" s="8"/>
+      <c r="K341" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="8">
@@ -11459,7 +12261,9 @@
       <c r="J342" s="12">
         <v>210.12</v>
       </c>
-      <c r="K342" s="8"/>
+      <c r="K342" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="8">
@@ -11490,7 +12294,9 @@
       <c r="J343" s="12">
         <v>923.28</v>
       </c>
-      <c r="K343" s="8"/>
+      <c r="K343" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="8">
@@ -11521,7 +12327,9 @@
       <c r="J344" s="12">
         <v>922.35</v>
       </c>
-      <c r="K344" s="8"/>
+      <c r="K344" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="9"/>
@@ -11548,7 +12356,9 @@
       <c r="J345" s="13">
         <v>13037.24</v>
       </c>
-      <c r="K345" s="9"/>
+      <c r="K345" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="8">
@@ -11573,7 +12383,9 @@
       </c>
       <c r="I346" s="12"/>
       <c r="J346" s="12"/>
-      <c r="K346" s="8"/>
+      <c r="K346" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="8">
@@ -11598,7 +12410,9 @@
       </c>
       <c r="I347" s="12"/>
       <c r="J347" s="12"/>
-      <c r="K347" s="8"/>
+      <c r="K347" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="8">
@@ -11623,7 +12437,9 @@
       </c>
       <c r="I348" s="12"/>
       <c r="J348" s="12"/>
-      <c r="K348" s="8"/>
+      <c r="K348" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="9"/>
@@ -11648,7 +12464,9 @@
       <c r="J349" s="13">
         <v>2600.5700000000002</v>
       </c>
-      <c r="K349" s="9"/>
+      <c r="K349" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="8">
@@ -11677,7 +12495,9 @@
       <c r="J350" s="12">
         <v>381.8</v>
       </c>
-      <c r="K350" s="8"/>
+      <c r="K350" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="8">
@@ -11706,7 +12526,9 @@
       <c r="J351" s="12">
         <v>622.97</v>
       </c>
-      <c r="K351" s="8"/>
+      <c r="K351" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="8">
@@ -11735,7 +12557,9 @@
       <c r="J352" s="12">
         <v>1190.83</v>
       </c>
-      <c r="K352" s="8"/>
+      <c r="K352" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="8">
@@ -11764,7 +12588,9 @@
       <c r="J353" s="12">
         <v>615.78</v>
       </c>
-      <c r="K353" s="8"/>
+      <c r="K353" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="8">
@@ -11793,7 +12619,9 @@
       <c r="J354" s="12">
         <v>774.81</v>
       </c>
-      <c r="K354" s="8"/>
+      <c r="K354" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="8">
@@ -11818,7 +12646,9 @@
       </c>
       <c r="I355" s="12"/>
       <c r="J355" s="12"/>
-      <c r="K355" s="8"/>
+      <c r="K355" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="8">
@@ -11847,7 +12677,9 @@
       <c r="J356" s="12">
         <v>576.23</v>
       </c>
-      <c r="K356" s="8"/>
+      <c r="K356" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="8">
@@ -11876,7 +12708,9 @@
       <c r="J357" s="12">
         <v>590.79</v>
       </c>
-      <c r="K357" s="8"/>
+      <c r="K357" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="8">
@@ -11901,7 +12735,9 @@
       <c r="J358" s="12">
         <v>2235.5700000000002</v>
       </c>
-      <c r="K358" s="8"/>
+      <c r="K358" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="8">
@@ -11930,7 +12766,9 @@
       <c r="J359" s="12">
         <v>1948.35</v>
       </c>
-      <c r="K359" s="8"/>
+      <c r="K359" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="8">
@@ -11959,7 +12797,9 @@
       <c r="J360" s="12">
         <v>1474.34</v>
       </c>
-      <c r="K360" s="8"/>
+      <c r="K360" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="8">
@@ -11988,7 +12828,9 @@
       <c r="J361" s="12">
         <v>2662.48</v>
       </c>
-      <c r="K361" s="8"/>
+      <c r="K361" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="8">
@@ -12017,7 +12859,9 @@
       <c r="J362" s="12">
         <v>714.11</v>
       </c>
-      <c r="K362" s="8"/>
+      <c r="K362" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="8">
@@ -12046,7 +12890,9 @@
       <c r="J363" s="12">
         <v>826.74</v>
       </c>
-      <c r="K363" s="8"/>
+      <c r="K363" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="8">
@@ -12075,7 +12921,9 @@
       <c r="J364" s="12">
         <v>760.5</v>
       </c>
-      <c r="K364" s="8"/>
+      <c r="K364" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="8">
@@ -12104,7 +12952,9 @@
       <c r="J365" s="12">
         <v>712.89</v>
       </c>
-      <c r="K365" s="8"/>
+      <c r="K365" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="8">
@@ -12133,7 +12983,9 @@
       <c r="J366" s="12">
         <v>837.07</v>
       </c>
-      <c r="K366" s="8"/>
+      <c r="K366" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="8">
@@ -12162,7 +13014,9 @@
       <c r="J367" s="12">
         <v>901.42</v>
       </c>
-      <c r="K367" s="8"/>
+      <c r="K367" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="8">
@@ -12191,7 +13045,9 @@
       <c r="J368" s="12">
         <v>2223.96</v>
       </c>
-      <c r="K368" s="8"/>
+      <c r="K368" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="9"/>
@@ -12216,7 +13072,9 @@
       <c r="J369" s="13">
         <v>19867.240000000002</v>
       </c>
-      <c r="K369" s="9"/>
+      <c r="K369" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="10"/>
@@ -12245,7 +13103,9 @@
       <c r="J370" s="14">
         <v>240216.58</v>
       </c>
-      <c r="K370" s="10"/>
+      <c r="K370" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="8">
@@ -12278,7 +13138,9 @@
       <c r="J371" s="12">
         <v>23974.959999999999</v>
       </c>
-      <c r="K371" s="8"/>
+      <c r="K371" s="8" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="8">
@@ -12311,7 +13173,9 @@
       <c r="J372" s="12">
         <v>31410.07</v>
       </c>
-      <c r="K372" s="8"/>
+      <c r="K372" s="8" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="8">
@@ -12334,7 +13198,9 @@
       </c>
       <c r="I373" s="12"/>
       <c r="J373" s="12"/>
-      <c r="K373" s="8"/>
+      <c r="K373" s="8" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="9"/>
@@ -12363,7 +13229,9 @@
       <c r="J374" s="13">
         <v>55385.03</v>
       </c>
-      <c r="K374" s="9"/>
+      <c r="K374" s="8" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="8">
@@ -12388,7 +13256,9 @@
       </c>
       <c r="I375" s="12"/>
       <c r="J375" s="12"/>
-      <c r="K375" s="8"/>
+      <c r="K375" s="8" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="9"/>
@@ -12413,7 +13283,9 @@
       <c r="J376" s="13">
         <v>81.489999999999995</v>
       </c>
-      <c r="K376" s="9"/>
+      <c r="K376" s="8" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="8">
@@ -12444,7 +13316,9 @@
       <c r="J377" s="12">
         <v>17081.39</v>
       </c>
-      <c r="K377" s="8"/>
+      <c r="K377" s="8" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="8">
@@ -12477,7 +13351,9 @@
       <c r="J378" s="12">
         <v>19506.05</v>
       </c>
-      <c r="K378" s="8"/>
+      <c r="K378" s="8" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="8">
@@ -12506,7 +13382,9 @@
       <c r="J379" s="12">
         <v>7460.69</v>
       </c>
-      <c r="K379" s="8"/>
+      <c r="K379" s="8" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="8">
@@ -12535,7 +13413,9 @@
       <c r="J380" s="12">
         <v>22057.58</v>
       </c>
-      <c r="K380" s="8"/>
+      <c r="K380" s="8" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="8">
@@ -12564,7 +13444,9 @@
       <c r="J381" s="12">
         <v>13451.28</v>
       </c>
-      <c r="K381" s="8"/>
+      <c r="K381" s="8" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="8">
@@ -12597,7 +13479,9 @@
       <c r="J382" s="12">
         <v>29148.03</v>
       </c>
-      <c r="K382" s="8"/>
+      <c r="K382" s="8" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="9"/>
@@ -12626,7 +13510,9 @@
       <c r="J383" s="13">
         <v>108705.04</v>
       </c>
-      <c r="K383" s="9"/>
+      <c r="K383" s="8" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="8">
@@ -12655,7 +13541,9 @@
       <c r="J384" s="12">
         <v>23952.799999999999</v>
       </c>
-      <c r="K384" s="8"/>
+      <c r="K384" s="8" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="9"/>
@@ -12680,7 +13568,9 @@
       <c r="J385" s="13">
         <v>23952.799999999999</v>
       </c>
-      <c r="K385" s="9"/>
+      <c r="K385" s="8" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="10"/>
@@ -12709,7 +13599,9 @@
       <c r="J386" s="14">
         <v>187961.39</v>
       </c>
-      <c r="K386" s="10"/>
+      <c r="K386" s="8" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="8">
@@ -12740,7 +13632,9 @@
       <c r="J387" s="12">
         <v>8253.32</v>
       </c>
-      <c r="K387" s="8"/>
+      <c r="K387" s="8" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="8">
@@ -12771,7 +13665,9 @@
       <c r="J388" s="12">
         <v>1904.71</v>
       </c>
-      <c r="K388" s="8"/>
+      <c r="K388" s="8" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="9"/>
@@ -12798,7 +13694,9 @@
       <c r="J389" s="13">
         <v>10158.040000000001</v>
       </c>
-      <c r="K389" s="9"/>
+      <c r="K389" s="8" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="10"/>
@@ -12825,7 +13723,9 @@
       <c r="J390" s="14">
         <v>10158.040000000001</v>
       </c>
-      <c r="K390" s="10"/>
+      <c r="K390" s="8" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="8">
@@ -12854,7 +13754,9 @@
       <c r="J391" s="12">
         <v>1321.86</v>
       </c>
-      <c r="K391" s="8"/>
+      <c r="K391" s="8" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="9"/>
@@ -12879,7 +13781,9 @@
       <c r="J392" s="13">
         <v>1321.86</v>
       </c>
-      <c r="K392" s="9"/>
+      <c r="K392" s="8" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="10"/>
@@ -12904,7 +13808,9 @@
       <c r="J393" s="14">
         <v>1321.86</v>
       </c>
-      <c r="K393" s="10"/>
+      <c r="K393" s="8" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="8">
@@ -12933,7 +13839,9 @@
       <c r="J394" s="12">
         <v>155656.16</v>
       </c>
-      <c r="K394" s="8"/>
+      <c r="K394" s="8" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="8">
@@ -12964,7 +13872,9 @@
       <c r="J395" s="12">
         <v>95870.91</v>
       </c>
-      <c r="K395" s="8"/>
+      <c r="K395" s="8" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="8">
@@ -12995,7 +13905,9 @@
       <c r="J396" s="12">
         <v>45041.55</v>
       </c>
-      <c r="K396" s="8"/>
+      <c r="K396" s="8" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="8">
@@ -13024,7 +13936,9 @@
       <c r="J397" s="12">
         <v>127062.24</v>
       </c>
-      <c r="K397" s="8"/>
+      <c r="K397" s="8" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="9"/>
@@ -13051,7 +13965,9 @@
       <c r="J398" s="13">
         <v>423630.87</v>
       </c>
-      <c r="K398" s="9"/>
+      <c r="K398" s="8" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="10"/>
@@ -13078,7 +13994,9 @@
       <c r="J399" s="14">
         <v>423630.87</v>
       </c>
-      <c r="K399" s="10"/>
+      <c r="K399" s="8" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="7"/>
